--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_17.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-72251.79362316606</v>
+        <v>-40336.63035840792</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484441</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8676798.568944594</v>
+        <v>8708364.2277869</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>76.55246125881301</v>
       </c>
       <c r="E2" t="n">
-        <v>325.1742879987712</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -820,7 +820,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>53.17878903537623</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>81.01314670313414</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>45.77764296561946</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>64.32458389125834</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1117,10 +1117,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>190.2204904348368</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>30.1577499769271</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>404.9349489747377</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1303,7 +1303,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>173.7040795765152</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>90.68764087733052</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>275.2704214118783</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>206.4855017772231</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225802</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.67077719907196</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1667,7 +1667,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>215.611122386457</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>122.9742767430578</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1825,7 +1825,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>108.5103196251644</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1847,10 +1847,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>163.9521757218106</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>161.4258646586666</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>50.30825486907156</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>133.9986524434719</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2081,7 +2081,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>248.9778919109225</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>32.6707771990719</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>105.2666242787484</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2251,7 +2251,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>94.2187898436169</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2725,10 +2725,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>24.34318456170526</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>48.2831433436287</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225828</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3661,7 +3661,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>56.67612639678285</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3673,10 +3673,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800586</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772998</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932877</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3755,10 +3755,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112158</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313376</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.8153550780013</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556917</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561532</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3803,10 +3803,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864823</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.203262463343</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.0567773522587</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3964,7 +3964,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>85.5532963163069</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800586</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772998</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932877</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -3992,10 +3992,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112158</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.412621479132238</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.8153550780013</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556917</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561532</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4040,10 +4040,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864823</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.203262463343</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
-        <v>103.8284742946048</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.6806259663152</v>
+        <v>618.1368421616979</v>
       </c>
       <c r="C2" t="n">
-        <v>418.0989517035836</v>
+        <v>179.9943693451212</v>
       </c>
       <c r="D2" t="n">
-        <v>386.2295709184322</v>
+        <v>102.6686509018758</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>72.934310100575</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031047</v>
       </c>
       <c r="K2" t="n">
-        <v>857.0776321906106</v>
+        <v>524.3060841805649</v>
       </c>
       <c r="L2" t="n">
-        <v>857.0776321906106</v>
+        <v>1132.008730489126</v>
       </c>
       <c r="M2" t="n">
-        <v>857.0776321906106</v>
+        <v>1132.008730489126</v>
       </c>
       <c r="N2" t="n">
-        <v>857.0776321906106</v>
+        <v>1132.008730489126</v>
       </c>
       <c r="O2" t="n">
-        <v>857.0776321906106</v>
+        <v>1132.008730489126</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1739.711376797688</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>2286.210162756282</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2235.297000382378</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2235.297000382378</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1872.680050316204</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1871.864999767642</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>1452.722536346952</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.939792410819</v>
+        <v>1044.436412646606</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>90.84293673397431</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064439</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985418</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>718.5617128800624</v>
+        <v>899.603321627118</v>
       </c>
       <c r="C4" t="n">
-        <v>546.0000013632873</v>
+        <v>727.041610110343</v>
       </c>
       <c r="D4" t="n">
-        <v>546.0000013632873</v>
+        <v>561.1636173118657</v>
       </c>
       <c r="E4" t="n">
-        <v>376.2419976140245</v>
+        <v>391.4056135626029</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>214.6985595243591</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>323.8657391213223</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>742.0756208892833</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>1201.559488070196</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1643.818291227841</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>2063.487540453622</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.994434423964</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>2401.648278988757</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>2123.215278241863</v>
       </c>
       <c r="V4" t="n">
-        <v>910.3803315990494</v>
+        <v>1836.259770112293</v>
       </c>
       <c r="W4" t="n">
-        <v>910.3803315990494</v>
+        <v>1564.233365698585</v>
       </c>
       <c r="X4" t="n">
-        <v>910.3803315990494</v>
+        <v>1318.841611031997</v>
       </c>
       <c r="Y4" t="n">
-        <v>910.3803315990494</v>
+        <v>1091.421940346105</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>1819.558022317326</v>
       </c>
       <c r="C5" t="n">
-        <v>1608.521390647508</v>
+        <v>1381.415549500749</v>
       </c>
       <c r="D5" t="n">
-        <v>1179.939716384776</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E5" t="n">
-        <v>751.3580421220443</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F5" t="n">
-        <v>323.4906125312521</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>323.4906125312521</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>2250.103312462176</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>2245.857592802233</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>262.5057921365585</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>262.5057921365585</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>262.5057921365585</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>262.5057921365585</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>262.5057921365585</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1292.259348259376</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U7" t="n">
-        <v>1013.629614209975</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>726.6741060804052</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>454.6477016666967</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>262.5057921365585</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>262.5057921365585</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>156.3047513715258</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C8" t="n">
-        <v>122.2026825953532</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D8" t="n">
-        <v>90.33330181020177</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>60.59896100890101</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851281</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851281</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851281</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851281</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114306</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>927.0793242105266</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>927.0793242105266</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>927.0793242105266</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>927.0793242105266</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>927.0793242105266</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873487</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172583</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.59677292564</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.59677292564</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1618.529545798679</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1359.307243115696</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>996.6902930495223</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="W8" t="n">
-        <v>591.8348384605556</v>
+        <v>2638.783402168797</v>
       </c>
       <c r="X8" t="n">
-        <v>182.8096374759721</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="Y8" t="n">
-        <v>178.5639178160296</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498056</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864479</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330012</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599549</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761165</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230034</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851281</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.8356086189704</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851827</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842786</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1127.786217543886</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543886</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543886</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543886</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543886</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.733360750348</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295687</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>810.3366467865964</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C10" t="n">
-        <v>637.7749352698213</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D10" t="n">
-        <v>471.896942471344</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E10" t="n">
-        <v>302.1389387220813</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F10" t="n">
-        <v>125.4318846838375</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G10" t="n">
-        <v>125.4318846838375</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838375</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851281</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851281</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851281</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>174.1091252727767</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>629.1618265718727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1071.420629729517</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1491.089878955299</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.59677292564</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.59677292564</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.59677292564</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.59677292564</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1838.59677292564</v>
+        <v>2494.602160192524</v>
       </c>
       <c r="U10" t="n">
-        <v>1838.59677292564</v>
+        <v>2216.169159445629</v>
       </c>
       <c r="V10" t="n">
-        <v>1746.993095271771</v>
+        <v>1929.213651316059</v>
       </c>
       <c r="W10" t="n">
-        <v>1474.966690858063</v>
+        <v>1657.187246902351</v>
       </c>
       <c r="X10" t="n">
-        <v>1229.574936191475</v>
+        <v>1411.795492235764</v>
       </c>
       <c r="Y10" t="n">
-        <v>1002.155265505583</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062124</v>
+        <v>2511.87917085155</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>2073.736698034973</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1637.826913209417</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1204.052168367713</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874951</v>
+        <v>776.1847387769203</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>374.7869074001837</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5048,43 +5048,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="N11" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>3461.990173263767</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4290.300048097163</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T11" t="n">
-        <v>4544.575746323208</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.575746323208</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.958796257035</v>
+        <v>4170.46278304646</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3765.607328457493</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247379</v>
+        <v>3346.464865036804</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547032</v>
+        <v>2938.178741336457</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5121,19 +5121,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580464</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412713</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D13" t="n">
         <v>608.792309442794</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F13" t="n">
         <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111506</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J13" t="n">
         <v>183.315661845805</v>
@@ -5203,10 +5203,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5242,7 +5242,7 @@
         <v>1366.470303162925</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477034</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="14">
@@ -5264,16 +5264,16 @@
         <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874951</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G14" t="n">
         <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397518</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5303,16 +5303,16 @@
         <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4803.798049006192</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T14" t="n">
-        <v>4803.798049006192</v>
+        <v>4616.731606928797</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.575746323208</v>
+        <v>4357.509304245814</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.958796257035</v>
+        <v>3994.89235417964</v>
       </c>
       <c r="W14" t="n">
         <v>3777.103341668068</v>
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580464</v>
+        <v>1087.134188067672</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412713</v>
+        <v>914.5724765508967</v>
       </c>
       <c r="D16" t="n">
-        <v>608.792309442794</v>
+        <v>748.6944837524195</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935313</v>
+        <v>578.9364800031567</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552875</v>
+        <v>402.2294259649129</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111519</v>
+        <v>236.6381509907405</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.736396587283</v>
+        <v>2589.179145429311</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165738</v>
+        <v>2589.179145429311</v>
       </c>
       <c r="U16" t="n">
-        <v>2008.423949418844</v>
+        <v>2310.746144682416</v>
       </c>
       <c r="V16" t="n">
-        <v>1721.468441289274</v>
+        <v>2023.790636552847</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.862057829513</v>
+        <v>1751.764232139138</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.470303162925</v>
+        <v>1506.372477472551</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477034</v>
+        <v>1278.952806786659</v>
       </c>
     </row>
     <row r="17">
@@ -5495,22 +5495,22 @@
         <v>1814.514395351991</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.906137047132</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F17" t="n">
-        <v>787.263962614635</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G17" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111519</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J17" t="n">
         <v>531.9906641340331</v>
@@ -5543,22 +5543,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112635</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429652</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363478</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.385025774512</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X17" t="n">
         <v>3087.242562353822</v>
       </c>
       <c r="Y17" t="n">
-        <v>2678.956438653476</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5586,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>998.0484328177145</v>
+        <v>1087.134188067672</v>
       </c>
       <c r="C19" t="n">
-        <v>825.4867213009394</v>
+        <v>914.5724765508969</v>
       </c>
       <c r="D19" t="n">
-        <v>659.6087285024621</v>
+        <v>748.6944837524196</v>
       </c>
       <c r="E19" t="n">
-        <v>489.8507247531994</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="F19" t="n">
-        <v>313.1436707149555</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G19" t="n">
-        <v>147.5523957407832</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J19" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.154217881911</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.274771460367</v>
+        <v>2446.098318867741</v>
       </c>
       <c r="U19" t="n">
-        <v>2029.841770713472</v>
+        <v>2310.746144682416</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.886262583902</v>
+        <v>2023.790636552847</v>
       </c>
       <c r="W19" t="n">
-        <v>1470.859858170194</v>
+        <v>1751.764232139139</v>
       </c>
       <c r="X19" t="n">
-        <v>1225.468103503606</v>
+        <v>1506.372477472551</v>
       </c>
       <c r="Y19" t="n">
-        <v>998.0484328177145</v>
+        <v>1278.952806786659</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2523.375184062124</v>
+        <v>2336.308741984731</v>
       </c>
       <c r="C20" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D20" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F20" t="n">
-        <v>787.6807519874951</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397518</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5777,25 +5777,25 @@
         <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4803.798049006191</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T20" t="n">
-        <v>4803.798049006191</v>
+        <v>4616.731606928797</v>
       </c>
       <c r="U20" t="n">
-        <v>4544.575746323208</v>
+        <v>4357.509304245815</v>
       </c>
       <c r="V20" t="n">
-        <v>4181.958796257034</v>
+        <v>3994.892354179641</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.103341668068</v>
+        <v>3590.036899590674</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.960878247378</v>
+        <v>3170.894436169985</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.674754547032</v>
+        <v>2762.608312469638</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>965.471182800731</v>
+        <v>870.3006880091987</v>
       </c>
       <c r="C22" t="n">
-        <v>792.9094712839559</v>
+        <v>697.7389764924236</v>
       </c>
       <c r="D22" t="n">
-        <v>627.0314784854786</v>
+        <v>531.8609836939463</v>
       </c>
       <c r="E22" t="n">
-        <v>457.2734747362159</v>
+        <v>362.1029799446836</v>
       </c>
       <c r="F22" t="n">
-        <v>280.5664206979721</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="G22" t="n">
         <v>185.3959259064399</v>
@@ -5905,10 +5905,10 @@
         <v>185.3959259064399</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J22" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S22" t="n">
-        <v>2713.395586583915</v>
+        <v>2532.736396587282</v>
       </c>
       <c r="T22" t="n">
-        <v>2467.51614016237</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U22" t="n">
-        <v>2189.083139415475</v>
+        <v>2008.423949418843</v>
       </c>
       <c r="V22" t="n">
-        <v>1902.127631285906</v>
+        <v>1721.468441289273</v>
       </c>
       <c r="W22" t="n">
-        <v>1630.101226872197</v>
+        <v>1449.442036875565</v>
       </c>
       <c r="X22" t="n">
-        <v>1384.70947220561</v>
+        <v>1204.050282208977</v>
       </c>
       <c r="Y22" t="n">
-        <v>1157.289801519718</v>
+        <v>976.6306115230859</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C25" t="n">
         <v>780.1951658309358</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
         <v>444.5591692831957</v>
@@ -6212,40 +6212,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883923</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716173</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>473.31497337314</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238773</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>126.8499155856334</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>126.8499155856334</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6385,7 +6385,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
         <v>881.8088617745661</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
         <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050032</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303137</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759859</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.57329640738</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.756877347711</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C31" t="n">
-        <v>780.195165830936</v>
+        <v>868.8551150562605</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324588</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354693</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066049</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M31" t="n">
         <v>1341.292728955479</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477105</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C34" t="n">
         <v>780.1951658309358</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6859,7 +6859,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
         <v>881.8088617745661</v>
@@ -6871,16 +6871,16 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>2203.220781338906</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>2550.727675309248</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
         <v>2700.681281130895</v>
@@ -6892,7 +6892,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
         <v>1617.386921419177</v>
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6974,13 +6974,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7072,16 +7072,16 @@
         <v>952.7568773477109</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G37" t="n">
         <v>102.2608402707796</v>
@@ -7160,13 +7160,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7202,10 +7202,10 @@
         <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
         <v>4187.483659846699</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883919</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C40" t="n">
-        <v>754.506065166389</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D40" t="n">
-        <v>588.6280723679117</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E40" t="n">
-        <v>418.8700686186489</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F40" t="n">
-        <v>242.1630145804051</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7342,7 +7342,7 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
         <v>2203.220781338905</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
         <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436395</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7421,37 +7421,37 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
         <v>2955.199618136696</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477105</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309355</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324582</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831955</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>267.8521152449518</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
         <v>102.2608402707796</v>
@@ -7567,10 +7567,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
         <v>881.8088617745661</v>
@@ -7594,22 +7594,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130894</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.801834709349</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
         <v>1144.575496066698</v>
@@ -7625,22 +7625,22 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
         <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771604</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>102.677629643641</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7658,28 +7658,28 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
         <v>4187.4836598467</v>
@@ -7688,10 +7688,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477105</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831956</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F46" t="n">
-        <v>267.8521152449519</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
         <v>102.2608402707796</v>
@@ -7807,13 +7807,13 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745664</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
         <v>1783.551532113124</v>
@@ -7831,10 +7831,10 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.801834709349</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
         <v>2176.368833962455</v>
@@ -7846,7 +7846,7 @@
         <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.995166752589</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
         <v>1144.575496066698</v>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>407.152590549595</v>
+        <v>40.34758805804069</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,13 +7994,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773349</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854771</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,25 +8137,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>44.81797281351055</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.64919323141</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2128107706676</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314102</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314101</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662698</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314102</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>138.7244341558221</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314101</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8696,13 +8696,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>860.0355415814561</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807277</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>40.81776196807277</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807277</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,22 +9881,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>-2.268258214386391e-13</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>10.96843159933758</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>11.38105307846863</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.1445778789294</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>185.19577765662</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>34.6746782719255</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>160.795820744407</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23735,10 +23735,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>267.5985112554894</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>268.0111327346212</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>88.19489769745766</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>141.6500182959539</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>184.7831561774884</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.14457787892946</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>84.63380825304888</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>69.7165723808137</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>114.159968004824</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>227.365527395797</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.592177662725</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>114.1599680048245</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,10 +25561,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627246</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
     </row>
     <row r="44">
@@ -26071,10 +26071,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
-        <v>139.5921776627244</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>741055.9318315471</v>
+        <v>750775.1969832344</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>741055.9318315471</v>
+        <v>753527.4338892144</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>742868.7366134145</v>
+        <v>753527.4338892144</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>734292.674909869</v>
+        <v>734292.6749098689</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>734292.6749098692</v>
+        <v>734292.6749098689</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>765280.6648805419</v>
+        <v>765280.6648805421</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>765280.6648805419</v>
+        <v>765280.6648805421</v>
       </c>
     </row>
     <row r="15">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>227862.6109534237</v>
+        <v>227862.6109534236</v>
       </c>
       <c r="C2" t="n">
         <v>227862.6109534237</v>
       </c>
       <c r="D2" t="n">
-        <v>227862.6109534236</v>
+        <v>227862.6109534237</v>
       </c>
       <c r="E2" t="n">
         <v>214847.6566379625</v>
@@ -26326,10 +26326,10 @@
         <v>214847.6566379626</v>
       </c>
       <c r="G2" t="n">
-        <v>214847.6566379626</v>
+        <v>214847.6566379625</v>
       </c>
       <c r="H2" t="n">
-        <v>214847.6566379626</v>
+        <v>214847.6566379625</v>
       </c>
       <c r="I2" t="n">
         <v>223914.4732583748</v>
@@ -26347,13 +26347,13 @@
         <v>223914.4732583748</v>
       </c>
       <c r="N2" t="n">
+        <v>223914.4732583748</v>
+      </c>
+      <c r="O2" t="n">
+        <v>223914.4732583748</v>
+      </c>
+      <c r="P2" t="n">
         <v>223914.4732583747</v>
-      </c>
-      <c r="O2" t="n">
-        <v>223914.4732583747</v>
-      </c>
-      <c r="P2" t="n">
-        <v>223914.4732583748</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039031</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.5443739065</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200291</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520271</v>
+        <v>161735.0752101143</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283946</v>
+        <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856134</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784502</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088510086</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104675</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199828.8262465156</v>
+        <v>166168.3820999509</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="D4" t="n">
-        <v>193550.5929483861</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
         <v>65247.19221856655</v>
@@ -26436,28 +26436,28 @@
         <v>65247.19221856655</v>
       </c>
       <c r="I4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="J4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="L4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="M4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="O4" t="n">
-        <v>68000.69828933284</v>
+        <v>68000.69828933277</v>
       </c>
       <c r="P4" t="n">
-        <v>68000.69828933284</v>
+        <v>68000.69828933282</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814195</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846973</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-173582.3040900242</v>
+        <v>-214967.1639085723</v>
       </c>
       <c r="C6" t="n">
-        <v>-31391.00343031424</v>
+        <v>-20327.09923491431</v>
       </c>
       <c r="D6" t="n">
-        <v>-38244.05961543517</v>
+        <v>-2986.554861007826</v>
       </c>
       <c r="E6" t="n">
-        <v>-147718.1716102787</v>
+        <v>-85730.51162316267</v>
       </c>
       <c r="F6" t="n">
-        <v>76081.12214174848</v>
+        <v>76004.56358695166</v>
       </c>
       <c r="G6" t="n">
-        <v>76081.12214174851</v>
+        <v>76004.56358695163</v>
       </c>
       <c r="H6" t="n">
-        <v>76081.12214174854</v>
+        <v>76004.56358695157</v>
       </c>
       <c r="I6" t="n">
-        <v>59830.82073041002</v>
+        <v>59807.59639102729</v>
       </c>
       <c r="J6" t="n">
-        <v>-32818.92898174071</v>
+        <v>-82435.5174617466</v>
       </c>
       <c r="K6" t="n">
-        <v>78195.53636324944</v>
+        <v>64358.30345602179</v>
       </c>
       <c r="L6" t="n">
-        <v>69247.92527473939</v>
+        <v>78172.31202386683</v>
       </c>
       <c r="M6" t="n">
-        <v>-108595.450247218</v>
+        <v>-56817.63258913656</v>
       </c>
       <c r="N6" t="n">
-        <v>78195.53636324943</v>
+        <v>78172.31202386683</v>
       </c>
       <c r="O6" t="n">
-        <v>78195.53636324931</v>
+        <v>78172.31202386683</v>
       </c>
       <c r="P6" t="n">
-        <v>78195.53636324943</v>
+        <v>78172.31202386672</v>
       </c>
     </row>
   </sheetData>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314101</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="F4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052212</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130576</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825295</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080547</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052212</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130576</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825295</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052212</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130576</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825295</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>354.9982257184869</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9.465190568306582</v>
-      </c>
-      <c r="D2" t="n">
-        <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>104.2627093945165</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27430,13 +27430,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27540,7 +27540,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>190.241862921953</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>203.0728063451397</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>387.9834051227915</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>367.2261030860416</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>52.71734668508483</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27904,22 +27904,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>328.8330305885846</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>10.01608981174473</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -28062,13 +28062,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>69.71657238081409</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>193.3983121709433</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-2.836692402994471e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>407.152590549595</v>
+        <v>40.34758805804069</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,13 +34714,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773349</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854771</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>44.81797281351055</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.64919323141</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2128107706676</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314102</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314101</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662698</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314102</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>138.7244341558221</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314101</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35416,13 +35416,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>860.0355415814561</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807277</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>40.81776196807277</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807277</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36528,13 +36528,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36765,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908053</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -36996,19 +36996,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37230,13 +37230,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956015</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512943</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37707,13 +37707,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908054</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38026,7 +38026,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908071</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
